--- a/bulletin/macroeconomics/static/macroeconomics/tables/average_salary_by_economic_activity_in_thousand_tenge.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/average_salary_by_economic_activity_in_thousand_tenge.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,720 +581,760 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Горнодобывающая промышленность</t>
+          <t>Промышленность</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>450.8</v>
+        <v>285.5</v>
       </c>
       <c r="C5" t="n">
-        <v>509.8</v>
+        <v>314.5</v>
       </c>
       <c r="D5" t="n">
-        <v>461.8</v>
+        <v>303.2</v>
       </c>
       <c r="E5" t="n">
-        <v>501</v>
+        <v>321.4</v>
       </c>
       <c r="F5" t="n">
-        <v>546.4</v>
+        <v>364.8</v>
       </c>
       <c r="G5" t="n">
-        <v>619.4</v>
+        <v>390.3</v>
       </c>
       <c r="H5" t="n">
-        <v>592.3</v>
+        <v>386.9</v>
       </c>
       <c r="I5" t="n">
-        <v>649.3</v>
+        <v>415.5</v>
       </c>
       <c r="J5" t="n">
-        <v>728.2</v>
+        <v>474.3</v>
       </c>
       <c r="K5" t="n">
-        <v>766.6</v>
+        <v>474.9</v>
       </c>
       <c r="L5" t="n">
-        <v>710.9</v>
+        <v>465.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Обрабатывающая промышленность</t>
+          <t>Горнодобывающая промышленность</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234.5</v>
+        <v>450.8</v>
       </c>
       <c r="C6" t="n">
-        <v>257.9</v>
+        <v>509.8</v>
       </c>
       <c r="D6" t="n">
-        <v>257.7</v>
+        <v>461.8</v>
       </c>
       <c r="E6" t="n">
-        <v>269.5</v>
+        <v>501</v>
       </c>
       <c r="F6" t="n">
-        <v>312.4</v>
+        <v>546.4</v>
       </c>
       <c r="G6" t="n">
-        <v>326.5</v>
+        <v>619.4</v>
       </c>
       <c r="H6" t="n">
-        <v>327.6</v>
+        <v>592.3</v>
       </c>
       <c r="I6" t="n">
-        <v>346.2</v>
+        <v>649.3</v>
       </c>
       <c r="J6" t="n">
-        <v>396.7</v>
+        <v>728.2</v>
       </c>
       <c r="K6" t="n">
-        <v>392</v>
+        <v>766.6</v>
       </c>
       <c r="L6" t="n">
-        <v>394.8</v>
+        <v>710.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Снабжение электроэнергией</t>
+          <t>Обрабатывающая промышленность</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186.4</v>
+        <v>234.5</v>
       </c>
       <c r="C7" t="n">
-        <v>187</v>
+        <v>257.9</v>
       </c>
       <c r="D7" t="n">
-        <v>204.2</v>
+        <v>257.7</v>
       </c>
       <c r="E7" t="n">
-        <v>203.2</v>
+        <v>269.5</v>
       </c>
       <c r="F7" t="n">
-        <v>256.9</v>
+        <v>312.4</v>
       </c>
       <c r="G7" t="n">
-        <v>235.4</v>
+        <v>326.5</v>
       </c>
       <c r="H7" t="n">
-        <v>253.5</v>
+        <v>327.6</v>
       </c>
       <c r="I7" t="n">
-        <v>260.3</v>
+        <v>346.2</v>
       </c>
       <c r="J7" t="n">
-        <v>326.3</v>
+        <v>396.7</v>
       </c>
       <c r="K7" t="n">
-        <v>281.9</v>
+        <v>392</v>
       </c>
       <c r="L7" t="n">
-        <v>304.7</v>
+        <v>394.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Водоснабжение</t>
+          <t>Снабжение электроэнергией</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>131.1</v>
+        <v>186.4</v>
       </c>
       <c r="C8" t="n">
-        <v>141.8</v>
+        <v>187</v>
       </c>
       <c r="D8" t="n">
-        <v>146.5</v>
+        <v>204.2</v>
       </c>
       <c r="E8" t="n">
-        <v>154.9</v>
+        <v>203.2</v>
       </c>
       <c r="F8" t="n">
-        <v>169.1</v>
+        <v>256.9</v>
       </c>
       <c r="G8" t="n">
-        <v>170.8</v>
+        <v>235.4</v>
       </c>
       <c r="H8" t="n">
-        <v>180.8</v>
+        <v>253.5</v>
       </c>
       <c r="I8" t="n">
-        <v>187.6</v>
+        <v>260.3</v>
       </c>
       <c r="J8" t="n">
-        <v>213.7</v>
+        <v>326.3</v>
       </c>
       <c r="K8" t="n">
-        <v>201.9</v>
+        <v>281.9</v>
       </c>
       <c r="L8" t="n">
-        <v>219.5</v>
+        <v>304.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Строительство</t>
+          <t>Водоснабжение</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>252.5</v>
+        <v>131.1</v>
       </c>
       <c r="C9" t="n">
-        <v>262.4</v>
+        <v>141.8</v>
       </c>
       <c r="D9" t="n">
-        <v>294.9</v>
+        <v>146.5</v>
       </c>
       <c r="E9" t="n">
-        <v>314.3</v>
+        <v>154.9</v>
       </c>
       <c r="F9" t="n">
-        <v>328.6</v>
+        <v>169.1</v>
       </c>
       <c r="G9" t="n">
-        <v>351</v>
+        <v>170.8</v>
       </c>
       <c r="H9" t="n">
-        <v>399.6</v>
+        <v>180.8</v>
       </c>
       <c r="I9" t="n">
-        <v>422.7</v>
+        <v>187.6</v>
       </c>
       <c r="J9" t="n">
-        <v>466.5</v>
+        <v>213.7</v>
       </c>
       <c r="K9" t="n">
-        <v>472.1</v>
+        <v>201.9</v>
       </c>
       <c r="L9" t="n">
-        <v>446.3</v>
+        <v>219.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Оптовая и розничная торговля</t>
+          <t>Строительство</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>186.2</v>
+        <v>252.5</v>
       </c>
       <c r="C10" t="n">
-        <v>202.3</v>
+        <v>262.4</v>
       </c>
       <c r="D10" t="n">
-        <v>214.1</v>
+        <v>294.9</v>
       </c>
       <c r="E10" t="n">
-        <v>222.1</v>
+        <v>314.3</v>
       </c>
       <c r="F10" t="n">
-        <v>231.9</v>
+        <v>328.6</v>
       </c>
       <c r="G10" t="n">
-        <v>239.9</v>
+        <v>351</v>
       </c>
       <c r="H10" t="n">
-        <v>251.5</v>
+        <v>399.6</v>
       </c>
       <c r="I10" t="n">
-        <v>267.4</v>
+        <v>422.7</v>
       </c>
       <c r="J10" t="n">
-        <v>295.2</v>
+        <v>466.5</v>
       </c>
       <c r="K10" t="n">
-        <v>293.4</v>
+        <v>472.1</v>
       </c>
       <c r="L10" t="n">
-        <v>306.3</v>
+        <v>446.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Транспорт и складирование</t>
+          <t>Оптовая и розничная торговля</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>253</v>
+        <v>186.2</v>
       </c>
       <c r="C11" t="n">
-        <v>272.9</v>
+        <v>202.3</v>
       </c>
       <c r="D11" t="n">
-        <v>269.1</v>
+        <v>214.1</v>
       </c>
       <c r="E11" t="n">
-        <v>300.6</v>
+        <v>222.1</v>
       </c>
       <c r="F11" t="n">
-        <v>327.2</v>
+        <v>231.9</v>
       </c>
       <c r="G11" t="n">
-        <v>355.9</v>
+        <v>239.9</v>
       </c>
       <c r="H11" t="n">
-        <v>362.7</v>
+        <v>251.5</v>
       </c>
       <c r="I11" t="n">
-        <v>393.9</v>
+        <v>267.4</v>
       </c>
       <c r="J11" t="n">
-        <v>427.3</v>
+        <v>295.2</v>
       </c>
       <c r="K11" t="n">
-        <v>437.4</v>
+        <v>293.4</v>
       </c>
       <c r="L11" t="n">
-        <v>451.8</v>
+        <v>306.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Предоставление услуг по проживанию и питанию</t>
+          <t>Транспорт и складирование</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>184.1</v>
+        <v>253</v>
       </c>
       <c r="C12" t="n">
-        <v>213.4</v>
+        <v>272.9</v>
       </c>
       <c r="D12" t="n">
-        <v>207</v>
+        <v>269.1</v>
       </c>
       <c r="E12" t="n">
-        <v>208.9</v>
+        <v>300.6</v>
       </c>
       <c r="F12" t="n">
-        <v>224.3</v>
+        <v>327.2</v>
       </c>
       <c r="G12" t="n">
-        <v>262.1</v>
+        <v>355.9</v>
       </c>
       <c r="H12" t="n">
-        <v>260.9</v>
+        <v>362.7</v>
       </c>
       <c r="I12" t="n">
-        <v>270</v>
+        <v>393.9</v>
       </c>
       <c r="J12" t="n">
-        <v>297.4</v>
+        <v>427.3</v>
       </c>
       <c r="K12" t="n">
-        <v>338.8</v>
+        <v>437.4</v>
       </c>
       <c r="L12" t="n">
-        <v>294</v>
+        <v>451.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Информация и связь</t>
+          <t>Предоставление услуг по проживанию и питанию</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>291.3</v>
+        <v>184.1</v>
       </c>
       <c r="C13" t="n">
-        <v>328.1</v>
+        <v>213.4</v>
       </c>
       <c r="D13" t="n">
-        <v>338.6</v>
+        <v>207</v>
       </c>
       <c r="E13" t="n">
-        <v>331.1</v>
+        <v>208.9</v>
       </c>
       <c r="F13" t="n">
-        <v>370.1</v>
+        <v>224.3</v>
       </c>
       <c r="G13" t="n">
-        <v>415.5</v>
+        <v>262.1</v>
       </c>
       <c r="H13" t="n">
-        <v>402</v>
+        <v>260.9</v>
       </c>
       <c r="I13" t="n">
-        <v>408.3</v>
+        <v>270</v>
       </c>
       <c r="J13" t="n">
-        <v>488.3</v>
+        <v>297.4</v>
       </c>
       <c r="K13" t="n">
-        <v>541.2</v>
+        <v>338.8</v>
       </c>
       <c r="L13" t="n">
-        <v>546.6</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Финансовая и страховая деятельность</t>
+          <t>Информация и связь</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>387.5</v>
+        <v>291.3</v>
       </c>
       <c r="C14" t="n">
-        <v>420.8</v>
+        <v>328.1</v>
       </c>
       <c r="D14" t="n">
-        <v>472.6</v>
+        <v>338.6</v>
       </c>
       <c r="E14" t="n">
-        <v>452.8</v>
+        <v>331.1</v>
       </c>
       <c r="F14" t="n">
-        <v>520.7</v>
+        <v>370.1</v>
       </c>
       <c r="G14" t="n">
-        <v>521.1</v>
+        <v>415.5</v>
       </c>
       <c r="H14" t="n">
-        <v>588.2</v>
+        <v>402</v>
       </c>
       <c r="I14" t="n">
-        <v>535.7</v>
+        <v>408.3</v>
       </c>
       <c r="J14" t="n">
-        <v>628.2</v>
+        <v>488.3</v>
       </c>
       <c r="K14" t="n">
-        <v>602.1</v>
+        <v>541.2</v>
       </c>
       <c r="L14" t="n">
-        <v>712.9</v>
+        <v>546.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Операции с недвижимым имуществом</t>
+          <t>Финансовая и страховая деятельность</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>183.5</v>
+        <v>387.5</v>
       </c>
       <c r="C15" t="n">
-        <v>169.2</v>
+        <v>420.8</v>
       </c>
       <c r="D15" t="n">
-        <v>179.1</v>
+        <v>472.6</v>
       </c>
       <c r="E15" t="n">
-        <v>181.9</v>
+        <v>452.8</v>
       </c>
       <c r="F15" t="n">
-        <v>221.9</v>
+        <v>520.7</v>
       </c>
       <c r="G15" t="n">
-        <v>213.5</v>
+        <v>521.1</v>
       </c>
       <c r="H15" t="n">
-        <v>210.3</v>
+        <v>588.2</v>
       </c>
       <c r="I15" t="n">
-        <v>213.9</v>
+        <v>535.7</v>
       </c>
       <c r="J15" t="n">
-        <v>228</v>
+        <v>628.2</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4</v>
+        <v>602.1</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4</v>
+        <v>712.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Профессиональная, научная и техническая деятельность</t>
+          <t>Операции с недвижимым имуществом</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>342.4</v>
+        <v>183.5</v>
       </c>
       <c r="C16" t="n">
-        <v>345.7</v>
+        <v>169.2</v>
       </c>
       <c r="D16" t="n">
-        <v>356.8</v>
+        <v>179.1</v>
       </c>
       <c r="E16" t="n">
-        <v>369.5</v>
+        <v>181.9</v>
       </c>
       <c r="F16" t="n">
-        <v>442</v>
+        <v>221.9</v>
       </c>
       <c r="G16" t="n">
-        <v>416.4</v>
+        <v>213.5</v>
       </c>
       <c r="H16" t="n">
-        <v>421.6</v>
+        <v>210.3</v>
       </c>
       <c r="I16" t="n">
-        <v>444.3</v>
+        <v>213.9</v>
       </c>
       <c r="J16" t="n">
-        <v>534.7</v>
+        <v>228</v>
       </c>
       <c r="K16" t="n">
-        <v>470.3</v>
+        <v>234.4</v>
       </c>
       <c r="L16" t="n">
-        <v>488.9</v>
+        <v>243.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Деятельность в области административного обслуживания</t>
+          <t>Профессиональная, научная и техническая деятельность</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.3</v>
+        <v>342.4</v>
       </c>
       <c r="C17" t="n">
-        <v>227</v>
+        <v>345.7</v>
       </c>
       <c r="D17" t="n">
-        <v>235.9</v>
+        <v>356.8</v>
       </c>
       <c r="E17" t="n">
-        <v>256</v>
+        <v>369.5</v>
       </c>
       <c r="F17" t="n">
-        <v>265.5</v>
+        <v>442</v>
       </c>
       <c r="G17" t="n">
-        <v>279.6</v>
+        <v>416.4</v>
       </c>
       <c r="H17" t="n">
-        <v>302.7</v>
+        <v>421.6</v>
       </c>
       <c r="I17" t="n">
-        <v>308.9</v>
+        <v>444.3</v>
       </c>
       <c r="J17" t="n">
-        <v>324.9</v>
+        <v>534.7</v>
       </c>
       <c r="K17" t="n">
-        <v>366.1</v>
+        <v>470.3</v>
       </c>
       <c r="L17" t="n">
-        <v>351.5</v>
+        <v>488.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Государственное управление и оборона</t>
+          <t>Деятельность в области административного обслуживания</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>185.7</v>
+        <v>220.3</v>
       </c>
       <c r="C18" t="n">
-        <v>179.3</v>
+        <v>227</v>
       </c>
       <c r="D18" t="n">
-        <v>203</v>
+        <v>235.9</v>
       </c>
       <c r="E18" t="n">
-        <v>206.9</v>
+        <v>256</v>
       </c>
       <c r="F18" t="n">
-        <v>245.4</v>
+        <v>265.5</v>
       </c>
       <c r="G18" t="n">
-        <v>238.8</v>
+        <v>279.6</v>
       </c>
       <c r="H18" t="n">
-        <v>249</v>
+        <v>302.7</v>
       </c>
       <c r="I18" t="n">
-        <v>249.4</v>
+        <v>308.9</v>
       </c>
       <c r="J18" t="n">
-        <v>323</v>
+        <v>324.9</v>
       </c>
       <c r="K18" t="n">
-        <v>290.1</v>
+        <v>366.1</v>
       </c>
       <c r="L18" t="n">
-        <v>301.1</v>
+        <v>351.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Образование</t>
+          <t>Государственное управление и оборона</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.3</v>
+        <v>185.7</v>
       </c>
       <c r="C19" t="n">
-        <v>192.3</v>
+        <v>179.3</v>
       </c>
       <c r="D19" t="n">
-        <v>233.9</v>
+        <v>203</v>
       </c>
       <c r="E19" t="n">
-        <v>182.1</v>
+        <v>206.9</v>
       </c>
       <c r="F19" t="n">
-        <v>219.2</v>
+        <v>245.4</v>
       </c>
       <c r="G19" t="n">
-        <v>233.9</v>
+        <v>238.8</v>
       </c>
       <c r="H19" t="n">
-        <v>293.3</v>
+        <v>249</v>
       </c>
       <c r="I19" t="n">
-        <v>222.9</v>
+        <v>249.4</v>
       </c>
       <c r="J19" t="n">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="K19" t="n">
-        <v>262.7</v>
+        <v>290.1</v>
       </c>
       <c r="L19" t="n">
-        <v>323.2</v>
+        <v>301.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Здравоохранение</t>
+          <t>Образование</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>175.5</v>
+        <v>165.3</v>
       </c>
       <c r="C20" t="n">
-        <v>197.9</v>
+        <v>192.3</v>
       </c>
       <c r="D20" t="n">
-        <v>230.3</v>
+        <v>233.9</v>
       </c>
       <c r="E20" t="n">
-        <v>225.1</v>
+        <v>182.1</v>
       </c>
       <c r="F20" t="n">
-        <v>246.2</v>
+        <v>219.2</v>
       </c>
       <c r="G20" t="n">
-        <v>233.8</v>
+        <v>233.9</v>
       </c>
       <c r="H20" t="n">
-        <v>258.1</v>
+        <v>293.3</v>
       </c>
       <c r="I20" t="n">
-        <v>245.2</v>
+        <v>222.9</v>
       </c>
       <c r="J20" t="n">
-        <v>263.1</v>
+        <v>250</v>
       </c>
       <c r="K20" t="n">
-        <v>297</v>
+        <v>262.7</v>
       </c>
       <c r="L20" t="n">
-        <v>298.2</v>
+        <v>323.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Искусство, развлечения и отдых</t>
+          <t>Здравоохранение</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>162.5</v>
+        <v>175.5</v>
       </c>
       <c r="C21" t="n">
-        <v>144.8</v>
+        <v>197.9</v>
       </c>
       <c r="D21" t="n">
-        <v>156.7</v>
+        <v>230.3</v>
       </c>
       <c r="E21" t="n">
-        <v>162.6</v>
+        <v>225.1</v>
       </c>
       <c r="F21" t="n">
-        <v>170.3</v>
+        <v>246.2</v>
       </c>
       <c r="G21" t="n">
-        <v>169.7</v>
+        <v>233.8</v>
       </c>
       <c r="H21" t="n">
-        <v>182</v>
+        <v>258.1</v>
       </c>
       <c r="I21" t="n">
-        <v>187.7</v>
+        <v>245.2</v>
       </c>
       <c r="J21" t="n">
-        <v>206.5</v>
+        <v>263.1</v>
       </c>
       <c r="K21" t="n">
-        <v>260.3</v>
+        <v>297</v>
       </c>
       <c r="L21" t="n">
-        <v>214.8</v>
+        <v>298.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Искусство, развлечения и отдых</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="D22" t="n">
+        <v>156.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>170.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>169.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>182</v>
+      </c>
+      <c r="I22" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>260.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>214.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Предоставление прочих видов услуг</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>226.6</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>240</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>239.8</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E23" t="n">
         <v>236</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F23" t="n">
         <v>255.9</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>227.4</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>249.2</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>249</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>249.7</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>249.4</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>293.2</v>
       </c>
     </row>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/average_salary_by_economic_activity_in_thousand_tenge.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/average_salary_by_economic_activity_in_thousand_tenge.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,11 +492,6 @@
           <t>1 кв</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2 кв</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,10 +527,7 @@
         <v>338.7</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>365.5</v>
+        <v>345.3</v>
       </c>
     </row>
     <row r="4">
@@ -574,9 +566,6 @@
       <c r="K4" t="n">
         <v>179.4</v>
       </c>
-      <c r="L4" t="n">
-        <v>224.9</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -614,9 +603,6 @@
       <c r="K5" t="n">
         <v>474.9</v>
       </c>
-      <c r="L5" t="n">
-        <v>465.9</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -654,9 +640,6 @@
       <c r="K6" t="n">
         <v>766.6</v>
       </c>
-      <c r="L6" t="n">
-        <v>710.9</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -694,9 +677,6 @@
       <c r="K7" t="n">
         <v>392</v>
       </c>
-      <c r="L7" t="n">
-        <v>394.8</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -734,9 +714,6 @@
       <c r="K8" t="n">
         <v>281.9</v>
       </c>
-      <c r="L8" t="n">
-        <v>304.7</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -774,9 +751,6 @@
       <c r="K9" t="n">
         <v>201.9</v>
       </c>
-      <c r="L9" t="n">
-        <v>219.5</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -814,9 +788,6 @@
       <c r="K10" t="n">
         <v>472.1</v>
       </c>
-      <c r="L10" t="n">
-        <v>446.3</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -854,9 +825,6 @@
       <c r="K11" t="n">
         <v>293.4</v>
       </c>
-      <c r="L11" t="n">
-        <v>306.3</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -894,9 +862,6 @@
       <c r="K12" t="n">
         <v>437.4</v>
       </c>
-      <c r="L12" t="n">
-        <v>451.8</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -934,9 +899,6 @@
       <c r="K13" t="n">
         <v>338.8</v>
       </c>
-      <c r="L13" t="n">
-        <v>294</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -974,9 +936,6 @@
       <c r="K14" t="n">
         <v>541.2</v>
       </c>
-      <c r="L14" t="n">
-        <v>546.6</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1014,9 +973,6 @@
       <c r="K15" t="n">
         <v>602.1</v>
       </c>
-      <c r="L15" t="n">
-        <v>712.9</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1054,9 +1010,6 @@
       <c r="K16" t="n">
         <v>234.4</v>
       </c>
-      <c r="L16" t="n">
-        <v>243.4</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1094,9 +1047,6 @@
       <c r="K17" t="n">
         <v>470.3</v>
       </c>
-      <c r="L17" t="n">
-        <v>488.9</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1132,10 +1082,7 @@
         <v>324.9</v>
       </c>
       <c r="K18" t="n">
-        <v>366.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>351.5</v>
+        <v>363.9</v>
       </c>
     </row>
     <row r="19">
@@ -1174,9 +1121,6 @@
       <c r="K19" t="n">
         <v>290.1</v>
       </c>
-      <c r="L19" t="n">
-        <v>301.1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1214,9 +1158,6 @@
       <c r="K20" t="n">
         <v>262.7</v>
       </c>
-      <c r="L20" t="n">
-        <v>323.2</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1254,9 +1195,6 @@
       <c r="K21" t="n">
         <v>297</v>
       </c>
-      <c r="L21" t="n">
-        <v>298.2</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1294,9 +1232,6 @@
       <c r="K22" t="n">
         <v>260.3</v>
       </c>
-      <c r="L22" t="n">
-        <v>214.8</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1333,16 +1268,13 @@
       </c>
       <c r="K23" t="n">
         <v>249.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>293.2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/average_salary_by_economic_activity_in_thousand_tenge.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/average_salary_by_economic_activity_in_thousand_tenge.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,16 @@
           <t>1 кв</t>
         </is>
       </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2 кв</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3 кв</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -529,6 +539,12 @@
       <c r="K3" t="n">
         <v>345.3</v>
       </c>
+      <c r="L3" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>350.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -566,6 +582,12 @@
       <c r="K4" t="n">
         <v>179.4</v>
       </c>
+      <c r="L4" t="n">
+        <v>224.9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>236.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -603,6 +625,12 @@
       <c r="K5" t="n">
         <v>474.9</v>
       </c>
+      <c r="L5" t="n">
+        <v>465.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>493</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -640,6 +668,12 @@
       <c r="K6" t="n">
         <v>766.6</v>
       </c>
+      <c r="L6" t="n">
+        <v>710.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>756.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -677,6 +711,12 @@
       <c r="K7" t="n">
         <v>392</v>
       </c>
+      <c r="L7" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>414.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -714,6 +754,12 @@
       <c r="K8" t="n">
         <v>281.9</v>
       </c>
+      <c r="L8" t="n">
+        <v>304.7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>326</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -751,6 +797,12 @@
       <c r="K9" t="n">
         <v>201.9</v>
       </c>
+      <c r="L9" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>239.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -788,6 +840,12 @@
       <c r="K10" t="n">
         <v>472.1</v>
       </c>
+      <c r="L10" t="n">
+        <v>446.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>484.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -825,6 +883,12 @@
       <c r="K11" t="n">
         <v>293.4</v>
       </c>
+      <c r="L11" t="n">
+        <v>306.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>317.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -862,6 +926,12 @@
       <c r="K12" t="n">
         <v>437.4</v>
       </c>
+      <c r="L12" t="n">
+        <v>451.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>474</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -899,6 +969,12 @@
       <c r="K13" t="n">
         <v>338.8</v>
       </c>
+      <c r="L13" t="n">
+        <v>294</v>
+      </c>
+      <c r="M13" t="n">
+        <v>303.8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -936,6 +1012,12 @@
       <c r="K14" t="n">
         <v>541.2</v>
       </c>
+      <c r="L14" t="n">
+        <v>546.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>525.8</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -973,6 +1055,12 @@
       <c r="K15" t="n">
         <v>602.1</v>
       </c>
+      <c r="L15" t="n">
+        <v>712.9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>668.9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1010,6 +1098,12 @@
       <c r="K16" t="n">
         <v>234.4</v>
       </c>
+      <c r="L16" t="n">
+        <v>243.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>251.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1047,6 +1141,12 @@
       <c r="K17" t="n">
         <v>470.3</v>
       </c>
+      <c r="L17" t="n">
+        <v>488.9</v>
+      </c>
+      <c r="M17" t="n">
+        <v>511.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1084,6 +1184,12 @@
       <c r="K18" t="n">
         <v>363.9</v>
       </c>
+      <c r="L18" t="n">
+        <v>351.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>362.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1121,6 +1227,12 @@
       <c r="K19" t="n">
         <v>290.1</v>
       </c>
+      <c r="L19" t="n">
+        <v>301.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>299.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1158,6 +1270,12 @@
       <c r="K20" t="n">
         <v>262.7</v>
       </c>
+      <c r="L20" t="n">
+        <v>323.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>247.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1195,6 +1313,12 @@
       <c r="K21" t="n">
         <v>297</v>
       </c>
+      <c r="L21" t="n">
+        <v>298.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>289.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1232,6 +1356,12 @@
       <c r="K22" t="n">
         <v>260.3</v>
       </c>
+      <c r="L22" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="M22" t="n">
+        <v>226.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1268,13 +1398,19 @@
       </c>
       <c r="K23" t="n">
         <v>249.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>293.3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
